--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col18a1-Gpc4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col18a1-Gpc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>Gpc4</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H2">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I2">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J2">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.00921883268133</v>
+        <v>9.088202666666666</v>
       </c>
       <c r="N2">
-        <v>6.00921883268133</v>
+        <v>27.264608</v>
       </c>
       <c r="O2">
-        <v>0.1340605903116916</v>
+        <v>0.184534923951364</v>
       </c>
       <c r="P2">
-        <v>0.1340605903116916</v>
+        <v>0.1845349239513639</v>
       </c>
       <c r="Q2">
-        <v>16.27574212006702</v>
+        <v>256.7308406959395</v>
       </c>
       <c r="R2">
-        <v>16.27574212006702</v>
+        <v>2310.577566263456</v>
       </c>
       <c r="S2">
-        <v>0.01079225881058739</v>
+        <v>0.0837376688468475</v>
       </c>
       <c r="T2">
-        <v>0.01079225881058739</v>
+        <v>0.08373766884684747</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H3">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I3">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J3">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.2637661089679</v>
+        <v>26.28019966666666</v>
       </c>
       <c r="N3">
-        <v>26.2637661089679</v>
+        <v>78.840599</v>
       </c>
       <c r="O3">
-        <v>0.5859224112837614</v>
+        <v>0.5336164723419087</v>
       </c>
       <c r="P3">
-        <v>0.5859224112837614</v>
+        <v>0.5336164723419087</v>
       </c>
       <c r="Q3">
-        <v>71.13441799898349</v>
+        <v>742.3841656641991</v>
       </c>
       <c r="R3">
-        <v>71.13441799898349</v>
+        <v>6681.457490977793</v>
       </c>
       <c r="S3">
-        <v>0.04716842056860844</v>
+        <v>0.2421427797806261</v>
       </c>
       <c r="T3">
-        <v>0.04716842056860844</v>
+        <v>0.2421427797806261</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,185 +652,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H4">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I4">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J4">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>12.5516635155138</v>
+        <v>0.013465</v>
       </c>
       <c r="N4">
-        <v>12.5516635155138</v>
+        <v>0.040395</v>
       </c>
       <c r="O4">
-        <v>0.280016998404547</v>
+        <v>0.0002734052971902383</v>
       </c>
       <c r="P4">
-        <v>0.280016998404547</v>
+        <v>0.0002734052971902382</v>
       </c>
       <c r="Q4">
-        <v>33.99570630467499</v>
+        <v>0.3803701234183333</v>
       </c>
       <c r="R4">
-        <v>33.99570630467499</v>
+        <v>3.423331110765</v>
       </c>
       <c r="S4">
-        <v>0.02254216478623214</v>
+        <v>0.0001240649831851023</v>
       </c>
       <c r="T4">
-        <v>0.02254216478623214</v>
+        <v>0.0001240649831851022</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.80091829163037</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H5">
-        <v>7.80091829163037</v>
+        <v>84.746407</v>
       </c>
       <c r="I5">
-        <v>0.2318644532881876</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J5">
-        <v>0.2318644532881876</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>6.00921883268133</v>
+        <v>0.08148366666666666</v>
       </c>
       <c r="N5">
-        <v>6.00921883268133</v>
+        <v>0.244451</v>
       </c>
       <c r="O5">
-        <v>0.1340605903116916</v>
+        <v>0.001654516606101026</v>
       </c>
       <c r="P5">
-        <v>0.1340605903116916</v>
+        <v>0.001654516606101026</v>
       </c>
       <c r="Q5">
-        <v>46.87742511027349</v>
+        <v>2.301815993061889</v>
       </c>
       <c r="R5">
-        <v>46.87742511027349</v>
+        <v>20.716343937557</v>
       </c>
       <c r="S5">
-        <v>0.03108388548011207</v>
+        <v>0.0007507812651214614</v>
       </c>
       <c r="T5">
-        <v>0.03108388548011207</v>
+        <v>0.0007507812651214613</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.80091829163037</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H6">
-        <v>7.80091829163037</v>
+        <v>84.746407</v>
       </c>
       <c r="I6">
-        <v>0.2318644532881876</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J6">
-        <v>0.2318644532881876</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.2637661089679</v>
+        <v>13.78587766666667</v>
       </c>
       <c r="N6">
-        <v>26.2637661089679</v>
+        <v>41.357633</v>
       </c>
       <c r="O6">
-        <v>0.5859224112837614</v>
+        <v>0.2799206818034362</v>
       </c>
       <c r="P6">
-        <v>0.5859224112837614</v>
+        <v>0.2799206818034362</v>
       </c>
       <c r="Q6">
-        <v>204.8814934465495</v>
+        <v>389.4345331971812</v>
       </c>
       <c r="R6">
-        <v>204.8814934465495</v>
+        <v>3504.910798774631</v>
       </c>
       <c r="S6">
-        <v>0.135854579561606</v>
+        <v>0.1270215136210083</v>
       </c>
       <c r="T6">
-        <v>0.135854579561606</v>
+        <v>0.1270215136210083</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,433 +838,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.80091829163037</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H7">
-        <v>7.80091829163037</v>
+        <v>24.205355</v>
       </c>
       <c r="I7">
-        <v>0.2318644532881876</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J7">
-        <v>0.2318644532881876</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.5516635155138</v>
+        <v>9.088202666666666</v>
       </c>
       <c r="N7">
-        <v>12.5516635155138</v>
+        <v>27.264608</v>
       </c>
       <c r="O7">
-        <v>0.280016998404547</v>
+        <v>0.184534923951364</v>
       </c>
       <c r="P7">
-        <v>0.280016998404547</v>
+        <v>0.1845349239513639</v>
       </c>
       <c r="Q7">
-        <v>97.91450150856116</v>
+        <v>73.3277239528711</v>
       </c>
       <c r="R7">
-        <v>97.91450150856116</v>
+        <v>659.9495155758398</v>
       </c>
       <c r="S7">
-        <v>0.06492598824646961</v>
+        <v>0.02391723818226753</v>
       </c>
       <c r="T7">
-        <v>0.06492598824646961</v>
+        <v>0.02391723818226752</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.0618169022654648</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H8">
-        <v>0.0618169022654648</v>
+        <v>24.205355</v>
       </c>
       <c r="I8">
-        <v>0.001837366026911139</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J8">
-        <v>0.001837366026911139</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.00921883268133</v>
+        <v>26.28019966666666</v>
       </c>
       <c r="N8">
-        <v>6.00921883268133</v>
+        <v>78.840599</v>
       </c>
       <c r="O8">
-        <v>0.1340605903116916</v>
+        <v>0.5336164723419087</v>
       </c>
       <c r="P8">
-        <v>0.1340605903116916</v>
+        <v>0.5336164723419087</v>
       </c>
       <c r="Q8">
-        <v>0.3714712932716522</v>
+        <v>212.0405208008494</v>
       </c>
       <c r="R8">
-        <v>0.3714712932716522</v>
+        <v>1908.364687207645</v>
       </c>
       <c r="S8">
-        <v>0.0002463183741863547</v>
+        <v>0.06916106715033801</v>
       </c>
       <c r="T8">
-        <v>0.0002463183741863547</v>
+        <v>0.069161067150338</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.0618169022654648</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H9">
-        <v>0.0618169022654648</v>
+        <v>24.205355</v>
       </c>
       <c r="I9">
-        <v>0.001837366026911139</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J9">
-        <v>0.001837366026911139</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>26.2637661089679</v>
+        <v>0.013465</v>
       </c>
       <c r="N9">
-        <v>26.2637661089679</v>
+        <v>0.040395</v>
       </c>
       <c r="O9">
-        <v>0.5859224112837614</v>
+        <v>0.0002734052971902383</v>
       </c>
       <c r="P9">
-        <v>0.5859224112837614</v>
+        <v>0.0002734052971902382</v>
       </c>
       <c r="Q9">
-        <v>1.623544662681095</v>
+        <v>0.1086417016916667</v>
       </c>
       <c r="R9">
-        <v>1.623544662681095</v>
+        <v>0.9777753152249999</v>
       </c>
       <c r="S9">
-        <v>0.001076553932898639</v>
+        <v>3.54355667381206E-05</v>
       </c>
       <c r="T9">
-        <v>0.001076553932898639</v>
+        <v>3.543556673812059E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0618169022654648</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H10">
-        <v>0.0618169022654648</v>
+        <v>24.205355</v>
       </c>
       <c r="I10">
-        <v>0.001837366026911139</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J10">
-        <v>0.001837366026911139</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>12.5516635155138</v>
+        <v>0.08148366666666666</v>
       </c>
       <c r="N10">
-        <v>12.5516635155138</v>
+        <v>0.244451</v>
       </c>
       <c r="O10">
-        <v>0.280016998404547</v>
+        <v>0.001654516606101026</v>
       </c>
       <c r="P10">
-        <v>0.280016998404547</v>
+        <v>0.001654516606101026</v>
       </c>
       <c r="Q10">
-        <v>0.7759049568075169</v>
+        <v>0.6574470261227777</v>
       </c>
       <c r="R10">
-        <v>0.7759049568075169</v>
+        <v>5.917023235104999</v>
       </c>
       <c r="S10">
-        <v>0.0005144937198261454</v>
+        <v>0.0002144389088921975</v>
       </c>
       <c r="T10">
-        <v>0.0005144937198261454</v>
+        <v>0.0002144389088921975</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.073107193021</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H11">
-        <v>23.073107193021</v>
+        <v>24.205355</v>
       </c>
       <c r="I11">
-        <v>0.6857953365194732</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J11">
-        <v>0.6857953365194732</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.00921883268133</v>
+        <v>13.78587766666667</v>
       </c>
       <c r="N11">
-        <v>6.00921883268133</v>
+        <v>41.357633</v>
       </c>
       <c r="O11">
-        <v>0.1340605903116916</v>
+        <v>0.2799206818034362</v>
       </c>
       <c r="P11">
-        <v>0.1340605903116916</v>
+        <v>0.2799206818034362</v>
       </c>
       <c r="Q11">
-        <v>138.6513502727769</v>
+        <v>111.2306876360794</v>
       </c>
       <c r="R11">
-        <v>138.6513502727769</v>
+        <v>1001.076188724715</v>
       </c>
       <c r="S11">
-        <v>0.09193812764680576</v>
+        <v>0.03628001396960513</v>
       </c>
       <c r="T11">
-        <v>0.09193812764680576</v>
+        <v>0.03628001396960512</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.073107193021</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H12">
-        <v>23.073107193021</v>
+        <v>0.192928</v>
       </c>
       <c r="I12">
-        <v>0.6857953365194732</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J12">
-        <v>0.6857953365194732</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.2637661089679</v>
+        <v>9.088202666666666</v>
       </c>
       <c r="N12">
-        <v>26.2637661089679</v>
+        <v>27.264608</v>
       </c>
       <c r="O12">
-        <v>0.5859224112837614</v>
+        <v>0.184534923951364</v>
       </c>
       <c r="P12">
-        <v>0.5859224112837614</v>
+        <v>0.1845349239513639</v>
       </c>
       <c r="Q12">
-        <v>605.9866907246484</v>
+        <v>0.5844562546915555</v>
       </c>
       <c r="R12">
-        <v>605.9866907246484</v>
+        <v>5.260106292223999</v>
       </c>
       <c r="S12">
-        <v>0.4018228572206484</v>
+        <v>0.0001906315742127521</v>
       </c>
       <c r="T12">
-        <v>0.4018228572206484</v>
+        <v>0.000190631574212752</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.06430933333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.192928</v>
+      </c>
+      <c r="I13">
+        <v>0.001033037921119988</v>
+      </c>
+      <c r="J13">
+        <v>0.001033037921119988</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>26.28019966666666</v>
+      </c>
+      <c r="N13">
+        <v>78.840599</v>
+      </c>
+      <c r="O13">
+        <v>0.5336164723419087</v>
+      </c>
+      <c r="P13">
+        <v>0.5336164723419087</v>
+      </c>
+      <c r="Q13">
+        <v>1.690062120430222</v>
+      </c>
+      <c r="R13">
+        <v>15.210559083872</v>
+      </c>
+      <c r="S13">
+        <v>0.0005512460512634667</v>
+      </c>
+      <c r="T13">
+        <v>0.0005512460512634667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.06430933333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.192928</v>
+      </c>
+      <c r="I14">
+        <v>0.001033037921119988</v>
+      </c>
+      <c r="J14">
+        <v>0.001033037921119988</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.013465</v>
+      </c>
+      <c r="N14">
+        <v>0.040395</v>
+      </c>
+      <c r="O14">
+        <v>0.0002734052971902383</v>
+      </c>
+      <c r="P14">
+        <v>0.0002734052971902382</v>
+      </c>
+      <c r="Q14">
+        <v>0.0008659251733333333</v>
+      </c>
+      <c r="R14">
+        <v>0.007793326559999999</v>
+      </c>
+      <c r="S14">
+        <v>2.824380398325962E-07</v>
+      </c>
+      <c r="T14">
+        <v>2.824380398325961E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.06430933333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.192928</v>
+      </c>
+      <c r="I15">
+        <v>0.001033037921119988</v>
+      </c>
+      <c r="J15">
+        <v>0.001033037921119988</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.08148366666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.244451</v>
+      </c>
+      <c r="O15">
+        <v>0.001654516606101026</v>
+      </c>
+      <c r="P15">
+        <v>0.001654516606101026</v>
+      </c>
+      <c r="Q15">
+        <v>0.005240160280888888</v>
+      </c>
+      <c r="R15">
+        <v>0.047161442528</v>
+      </c>
+      <c r="S15">
+        <v>1.709178395225101E-06</v>
+      </c>
+      <c r="T15">
+        <v>1.709178395225101E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.06430933333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.192928</v>
+      </c>
+      <c r="I16">
+        <v>0.001033037921119988</v>
+      </c>
+      <c r="J16">
+        <v>0.001033037921119988</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>13.78587766666667</v>
+      </c>
+      <c r="N16">
+        <v>41.357633</v>
+      </c>
+      <c r="O16">
+        <v>0.2799206818034362</v>
+      </c>
+      <c r="P16">
+        <v>0.2799206818034362</v>
+      </c>
+      <c r="Q16">
+        <v>0.8865606021582221</v>
+      </c>
+      <c r="R16">
+        <v>7.979045419424</v>
+      </c>
+      <c r="S16">
+        <v>0.0002891686792087113</v>
+      </c>
+      <c r="T16">
+        <v>0.0002891686792087113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.133172</v>
+      </c>
+      <c r="H17">
+        <v>0.399516</v>
+      </c>
+      <c r="I17">
+        <v>0.002139218662372351</v>
+      </c>
+      <c r="J17">
+        <v>0.002139218662372351</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>9.088202666666666</v>
+      </c>
+      <c r="N17">
+        <v>27.264608</v>
+      </c>
+      <c r="O17">
+        <v>0.184534923951364</v>
+      </c>
+      <c r="P17">
+        <v>0.1845349239513639</v>
+      </c>
+      <c r="Q17">
+        <v>1.210294125525333</v>
+      </c>
+      <c r="R17">
+        <v>10.892647129728</v>
+      </c>
+      <c r="S17">
+        <v>0.0003947605531762205</v>
+      </c>
+      <c r="T17">
+        <v>0.0003947605531762203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.133172</v>
+      </c>
+      <c r="H18">
+        <v>0.399516</v>
+      </c>
+      <c r="I18">
+        <v>0.002139218662372351</v>
+      </c>
+      <c r="J18">
+        <v>0.002139218662372351</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>26.28019966666666</v>
+      </c>
+      <c r="N18">
+        <v>78.840599</v>
+      </c>
+      <c r="O18">
+        <v>0.5336164723419087</v>
+      </c>
+      <c r="P18">
+        <v>0.5336164723419087</v>
+      </c>
+      <c r="Q18">
+        <v>3.499786750009333</v>
+      </c>
+      <c r="R18">
+        <v>31.498080750084</v>
+      </c>
+      <c r="S18">
+        <v>0.001141522316183111</v>
+      </c>
+      <c r="T18">
+        <v>0.001141522316183111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.133172</v>
+      </c>
+      <c r="H19">
+        <v>0.399516</v>
+      </c>
+      <c r="I19">
+        <v>0.002139218662372351</v>
+      </c>
+      <c r="J19">
+        <v>0.002139218662372351</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.013465</v>
+      </c>
+      <c r="N19">
+        <v>0.040395</v>
+      </c>
+      <c r="O19">
+        <v>0.0002734052971902383</v>
+      </c>
+      <c r="P19">
+        <v>0.0002734052971902382</v>
+      </c>
+      <c r="Q19">
+        <v>0.00179316098</v>
+      </c>
+      <c r="R19">
+        <v>0.01613844882</v>
+      </c>
+      <c r="S19">
+        <v>5.848737141408167E-07</v>
+      </c>
+      <c r="T19">
+        <v>5.848737141408166E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.133172</v>
+      </c>
+      <c r="H20">
+        <v>0.399516</v>
+      </c>
+      <c r="I20">
+        <v>0.002139218662372351</v>
+      </c>
+      <c r="J20">
+        <v>0.002139218662372351</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.08148366666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.244451</v>
+      </c>
+      <c r="O20">
+        <v>0.001654516606101026</v>
+      </c>
+      <c r="P20">
+        <v>0.001654516606101026</v>
+      </c>
+      <c r="Q20">
+        <v>0.01085134285733333</v>
+      </c>
+      <c r="R20">
+        <v>0.09766208571599999</v>
+      </c>
+      <c r="S20">
+        <v>3.539372800976279E-06</v>
+      </c>
+      <c r="T20">
+        <v>3.539372800976279E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>23.073107193021</v>
-      </c>
-      <c r="H13">
-        <v>23.073107193021</v>
-      </c>
-      <c r="I13">
-        <v>0.6857953365194732</v>
-      </c>
-      <c r="J13">
-        <v>0.6857953365194732</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>12.5516635155138</v>
-      </c>
-      <c r="N13">
-        <v>12.5516635155138</v>
-      </c>
-      <c r="O13">
-        <v>0.280016998404547</v>
-      </c>
-      <c r="P13">
-        <v>0.280016998404547</v>
-      </c>
-      <c r="Q13">
-        <v>289.6058777441807</v>
-      </c>
-      <c r="R13">
-        <v>289.6058777441807</v>
-      </c>
-      <c r="S13">
-        <v>0.1920343516520191</v>
-      </c>
-      <c r="T13">
-        <v>0.1920343516520191</v>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.133172</v>
+      </c>
+      <c r="H21">
+        <v>0.399516</v>
+      </c>
+      <c r="I21">
+        <v>0.002139218662372351</v>
+      </c>
+      <c r="J21">
+        <v>0.002139218662372351</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>13.78587766666667</v>
+      </c>
+      <c r="N21">
+        <v>41.357633</v>
+      </c>
+      <c r="O21">
+        <v>0.2799206818034362</v>
+      </c>
+      <c r="P21">
+        <v>0.2799206818034362</v>
+      </c>
+      <c r="Q21">
+        <v>1.835892900625333</v>
+      </c>
+      <c r="R21">
+        <v>16.523036105628</v>
+      </c>
+      <c r="S21">
+        <v>0.0005988115464979034</v>
+      </c>
+      <c r="T21">
+        <v>0.0005988115464979034</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H22">
+        <v>77.213701</v>
+      </c>
+      <c r="I22">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J22">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>9.088202666666666</v>
+      </c>
+      <c r="N22">
+        <v>27.264608</v>
+      </c>
+      <c r="O22">
+        <v>0.184534923951364</v>
+      </c>
+      <c r="P22">
+        <v>0.1845349239513639</v>
+      </c>
+      <c r="Q22">
+        <v>233.9112544438009</v>
+      </c>
+      <c r="R22">
+        <v>2105.201289994208</v>
+      </c>
+      <c r="S22">
+        <v>0.07629462479485999</v>
+      </c>
+      <c r="T22">
+        <v>0.07629462479485997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H23">
+        <v>77.213701</v>
+      </c>
+      <c r="I23">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J23">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>26.28019966666666</v>
+      </c>
+      <c r="N23">
+        <v>78.840599</v>
+      </c>
+      <c r="O23">
+        <v>0.5336164723419087</v>
+      </c>
+      <c r="P23">
+        <v>0.5336164723419087</v>
+      </c>
+      <c r="Q23">
+        <v>676.3971597607665</v>
+      </c>
+      <c r="R23">
+        <v>6087.574437846899</v>
+      </c>
+      <c r="S23">
+        <v>0.2206198570434981</v>
+      </c>
+      <c r="T23">
+        <v>0.2206198570434981</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H24">
+        <v>77.213701</v>
+      </c>
+      <c r="I24">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J24">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.013465</v>
+      </c>
+      <c r="N24">
+        <v>0.040395</v>
+      </c>
+      <c r="O24">
+        <v>0.0002734052971902383</v>
+      </c>
+      <c r="P24">
+        <v>0.0002734052971902382</v>
+      </c>
+      <c r="Q24">
+        <v>0.3465608279883333</v>
+      </c>
+      <c r="R24">
+        <v>3.119047451895</v>
+      </c>
+      <c r="S24">
+        <v>0.000113037435513042</v>
+      </c>
+      <c r="T24">
+        <v>0.000113037435513042</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H25">
+        <v>77.213701</v>
+      </c>
+      <c r="I25">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J25">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.08148366666666666</v>
+      </c>
+      <c r="N25">
+        <v>0.244451</v>
+      </c>
+      <c r="O25">
+        <v>0.001654516606101026</v>
+      </c>
+      <c r="P25">
+        <v>0.001654516606101026</v>
+      </c>
+      <c r="Q25">
+        <v>2.097218491461222</v>
+      </c>
+      <c r="R25">
+        <v>18.874966423151</v>
+      </c>
+      <c r="S25">
+        <v>0.0006840478808911656</v>
+      </c>
+      <c r="T25">
+        <v>0.0006840478808911656</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H26">
+        <v>77.213701</v>
+      </c>
+      <c r="I26">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J26">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>13.78587766666667</v>
+      </c>
+      <c r="N26">
+        <v>41.357633</v>
+      </c>
+      <c r="O26">
+        <v>0.2799206818034362</v>
+      </c>
+      <c r="P26">
+        <v>0.2799206818034362</v>
+      </c>
+      <c r="Q26">
+        <v>354.8195453921925</v>
+      </c>
+      <c r="R26">
+        <v>3193.375908529733</v>
+      </c>
+      <c r="S26">
+        <v>0.1157311739871162</v>
+      </c>
+      <c r="T26">
+        <v>0.1157311739871162</v>
       </c>
     </row>
   </sheetData>
